--- a/shuyouliu_bug_list.xlsx
+++ b/shuyouliu_bug_list.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BUGLisT" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>main] c.c.c.ConfigServicePropertySourceLocator : Fetching config from server at: http://openec.zyhao.com:8888</t>
   </si>
@@ -64,6 +64,42 @@
   </si>
   <si>
     <t>初期只添加 development 部分即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: Application startup failed
+org.springframework.beans.factory.UnsatisfiedDependencyException: Error creating bean with name 'demoControllerV1' defined in file [C:\2C\openec\cms-search-service\target\classes\com\zyhao\openec\api\v1\DemoControllerV1.class]: Unsatisfied dependency expressed through constructor argument with index 0 of type [com.zyhao.openec.api.v1.DemoServiceV1]: Error creating bean with name 'demoServiceV1' defined in file [C:\2C\openec\cms-search-service\target\classes\com\zyhao\openec\api\v1\DemoServiceV1.class]: Unsatisfied dependency expressed through constructor argument with index 0 of type [org.springframework.security.oauth2.client.OAuth2RestTemplate]: Error creating bean with name 'loadBalancedOauth2RestTemplate' defined in com.zyhao.openec.OpenecApplication: Unsatisfied dependency expressed through constructor argument with index 0 of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails]: No qualifying bean of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails] found for dependency: expected at least 1 bean which qualifies as autowire candidate for this dependency. Dependency annotations: {}; nested exception is org.springframework.beans.factory.NoSuchBeanDefinitionException: No qualifying bean of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails] found for dependency: expected at least 1 bean which qualifies as autowire candidate for this dependency. Dependency annotations: {}; nested exception is org.springframework.beans.factory.UnsatisfiedDependencyException: Error creating bean with name 'loadBalancedOauth2RestTemplate' defined in com.zyhao.openec.OpenecApplication: Unsatisfied dependency expressed through constructor argument with index 0 of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails]: No qualifying bean of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails] found for dependency: expected at least 1 bean which qualifies as autowire candidate for this dependency. Dependency annotations: {}; nested exception is org.springframework.beans.factory.NoSuchBeanDefinitionException: No qualifying bean of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails] found for dependency: expected at least 1 bean which qualifies as autowire candidate for this dependency. Dependency annotations: {}; nested exception is org.springframework.beans.factory.UnsatisfiedDependencyException: Error creating bean with name 'demoServiceV1' defined in file [C:\2C\openec\cms-search-service\target\classes\com\zyhao\openec\api\v1\DemoServiceV1.class]: Unsatisfied dependency expressed through constructor argument with index 0 of type [org.springframework.security.oauth2.client.OAuth2RestTemplate]: Error creating bean with name 'loadBalancedOauth2RestTemplate' defined in com.zyhao.openec.OpenecApplication: Unsatisfied dependency expressed through constructor argument with index 0 of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails]: No qualifying bean of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails] found for dependency: expected at least 1 bean which qualifies as autowire candidate for this dependency. Dependency annotations: {}; nested exception is org.springframework.beans.factory.NoSuchBeanDefinitionException: No qualifying bean of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails] found for dependency: expected at least 1 bean which qualifies as autowire candidate for this dependency. Dependency annotations: {}; nested exception is org.springframework.beans.factory.UnsatisfiedDependencyException: Error creating bean with name 'loadBalancedOauth2RestTemplate' defined in com.zyhao.openec.OpenecApplication: Unsatisfied dependency expressed through constructor argument with index 0 of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails]: No qualifying bean of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails] found for dependency: expected at least 1 bean which qualifies as autowire candidate for this dependency. Dependency annotations: {}; nested exception is org.springframework.beans.factory.NoSuchBeanDefinitionException: No qualifying bean of type [org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails] found for dependency: expected at least 1 bean which qualifies as autowire candidate for this dependency. Dependency annotations: {}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG 忘记配置下面内容。会出BUG
+security:
+  oauth2:
+    resource:
+      userInfoUri: http://192.168.1.128:8181/uaa/user
+    client:
+      client-id: acme
+      access-token-uri: http://192.168.1.128:8787
+  enable-csrf: false
+  ignored: /**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.lang.IllegalArgumentException: HTTP URL must not be null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> return Optional.ofNullable(demoService.getDemo()   --------------------------此处返回NULL 的原因)
+                .map(cart -&gt; new ResponseEntity&lt;&gt;(cart, HttpStatus.OK))
+                .orElseThrow(() -&gt; new Exception("Could not find user"));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,13 +156,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="96.875" customWidth="1"/>
+    <col min="1" max="1" width="142.875" customWidth="1"/>
     <col min="2" max="8" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,18 +509,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="283.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
